--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_480.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_480.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33252-d82586-Reviews-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>945</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1033</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Montrose-West-Hollywood.h17594.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_480.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_480.xlsx
@@ -7,8 +7,8 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,1117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="371">
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
+    <t>10/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r625538054-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>33252</t>
+  </si>
+  <si>
+    <t>82586</t>
+  </si>
+  <si>
+    <t>625538054</t>
+  </si>
+  <si>
+    <t>10/16/2018</t>
+  </si>
+  <si>
+    <t>I'm afraid to leave this review...</t>
+  </si>
+  <si>
+    <t>We had such an wonderful experience here, and I'm afraid that if I leave this review and everyone discovers this little gem, the prices will go up and we won't be able to afford to stay there any more!
+Our daughter has moved to the area and we have been searching for our "go to" place to stay for our regular visits.  I don't even recall how I spotted the Montrose online, but somehow one day I checked it out.  I decided to call the hotel directly rather than use an online booking link.  That was when my good experience began.
+Not only did I reach a friendly person, but she tried very hard to give me the best deal available.  The price was terrific and better than what the "discount" sites were offering for the same hotel, so I went ahead and booked.  Upon arrival, the desk was very accommodating, even though we were early and our room wasn't ready.  They did all they could to be sure we were comfortable.
+The room was stylish and very very comfortable. So much so, that our first day there, my husband sat in the living room area and got some work done while I just relaxed and enjoyed much needed quiet time.  We felt no need or yearning to leave the room.  It is so pleasant and appealing.
+We asked the manager if we could invite family to the hotel since...We had such an wonderful experience here, and I'm afraid that if I leave this review and everyone discovers this little gem, the prices will go up and we won't be able to afford to stay there any more!Our daughter has moved to the area and we have been searching for our "go to" place to stay for our regular visits.  I don't even recall how I spotted the Montrose online, but somehow one day I checked it out.  I decided to call the hotel directly rather than use an online booking link.  That was when my good experience began.Not only did I reach a friendly person, but she tried very hard to give me the best deal available.  The price was terrific and better than what the "discount" sites were offering for the same hotel, so I went ahead and booked.  Upon arrival, the desk was very accommodating, even though we were early and our room wasn't ready.  They did all they could to be sure we were comfortable.The room was stylish and very very comfortable. So much so, that our first day there, my husband sat in the living room area and got some work done while I just relaxed and enjoyed much needed quiet time.  We felt no need or yearning to leave the room.  It is so pleasant and appealing.We asked the manager if we could invite family to the hotel since we had only a little time to spend and thought that the best way to see everyone we hoped to see was to try to entertain them at the hotel.  The staff was instantly accommodating.  We met the chef who made suggestions, and then had the staff do absolutely everything for us.  For a reasonable price, we threw a family party on the rooftop deck, with delicious food, a private seating area, outdoor heaters and open bar, not to mention the beautiful night time twinkling view.  It was a hit with everyone!We could not have asked for a better experience, a more accommodating and wonderful staff, a fantastic chef, delicious food and a comfortable environment.  We can't wait to return.  There's probably more I can say, but suffice it to say, the whole thing was top notch and we were completely happy.  And how often can you even say that?Now PLEASE don't raise the prices!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We had such an wonderful experience here, and I'm afraid that if I leave this review and everyone discovers this little gem, the prices will go up and we won't be able to afford to stay there any more!
+Our daughter has moved to the area and we have been searching for our "go to" place to stay for our regular visits.  I don't even recall how I spotted the Montrose online, but somehow one day I checked it out.  I decided to call the hotel directly rather than use an online booking link.  That was when my good experience began.
+Not only did I reach a friendly person, but she tried very hard to give me the best deal available.  The price was terrific and better than what the "discount" sites were offering for the same hotel, so I went ahead and booked.  Upon arrival, the desk was very accommodating, even though we were early and our room wasn't ready.  They did all they could to be sure we were comfortable.
+The room was stylish and very very comfortable. So much so, that our first day there, my husband sat in the living room area and got some work done while I just relaxed and enjoyed much needed quiet time.  We felt no need or yearning to leave the room.  It is so pleasant and appealing.
+We asked the manager if we could invite family to the hotel since...We had such an wonderful experience here, and I'm afraid that if I leave this review and everyone discovers this little gem, the prices will go up and we won't be able to afford to stay there any more!Our daughter has moved to the area and we have been searching for our "go to" place to stay for our regular visits.  I don't even recall how I spotted the Montrose online, but somehow one day I checked it out.  I decided to call the hotel directly rather than use an online booking link.  That was when my good experience began.Not only did I reach a friendly person, but she tried very hard to give me the best deal available.  The price was terrific and better than what the "discount" sites were offering for the same hotel, so I went ahead and booked.  Upon arrival, the desk was very accommodating, even though we were early and our room wasn't ready.  They did all they could to be sure we were comfortable.The room was stylish and very very comfortable. So much so, that our first day there, my husband sat in the living room area and got some work done while I just relaxed and enjoyed much needed quiet time.  We felt no need or yearning to leave the room.  It is so pleasant and appealing.We asked the manager if we could invite family to the hotel since we had only a little time to spend and thought that the best way to see everyone we hoped to see was to try to entertain them at the hotel.  The staff was instantly accommodating.  We met the chef who made suggestions, and then had the staff do absolutely everything for us.  For a reasonable price, we threw a family party on the rooftop deck, with delicious food, a private seating area, outdoor heaters and open bar, not to mention the beautiful night time twinkling view.  It was a hit with everyone!We could not have asked for a better experience, a more accommodating and wonderful staff, a fantastic chef, delicious food and a comfortable environment.  We can't wait to return.  There's probably more I can say, but suffice it to say, the whole thing was top notch and we were completely happy.  And how often can you even say that?Now PLEASE don't raise the prices!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r596826882-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>596826882</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t>Hospitality Done Right</t>
+  </si>
+  <si>
+    <t>I recently stayed at Montrose West Hollywood and was very impressed with the quality of service and the spacious colorful guest rooms.Every time I walked through the front door, I was greeted with a smile and a "How do you do?"  The housekeeping staff was also engaged and said "hello" when passing by.I was staying in the hotel for business and had several meals in the hotel restaurant.  Two thumbs up on the food and all the pleasant servers.I highly recommend staying here whether for business or leisure!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Andrew M, General Manager at Montrose West Hollywood, responded to this reviewResponded July 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2018</t>
+  </si>
+  <si>
+    <t>I recently stayed at Montrose West Hollywood and was very impressed with the quality of service and the spacious colorful guest rooms.Every time I walked through the front door, I was greeted with a smile and a "How do you do?"  The housekeeping staff was also engaged and said "hello" when passing by.I was staying in the hotel for business and had several meals in the hotel restaurant.  Two thumbs up on the food and all the pleasant servers.I highly recommend staying here whether for business or leisure!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r624877294-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>624877294</t>
+  </si>
+  <si>
+    <t>10/14/2018</t>
+  </si>
+  <si>
+    <t>Back To back Weekend stays</t>
+  </si>
+  <si>
+    <t>This is a big shout out to Marcus Jason Rafael Arlene Jose John and the rest of the staff at the Montrose. They made us feel so welcome during our two weekends stays. They were extremely Friendly and  generous in helping us celebrate our 45th wedding anniversary and the accommodation could not of been nicer. From check in to check out valet service and their daily happy hour celebrations everything went perfectly.  We’ll be back as soon as we can... thank you again for all your efforts. Deb &amp; Alfred MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Andrew M, General Manager at Montrose West Hollywood, responded to this reviewResponded yesterday</t>
+  </si>
+  <si>
+    <t>Responded yesterday</t>
+  </si>
+  <si>
+    <t>This is a big shout out to Marcus Jason Rafael Arlene Jose John and the rest of the staff at the Montrose. They made us feel so welcome during our two weekends stays. They were extremely Friendly and  generous in helping us celebrate our 45th wedding anniversary and the accommodation could not of been nicer. From check in to check out valet service and their daily happy hour celebrations everything went perfectly.  We’ll be back as soon as we can... thank you again for all your efforts. Deb &amp; Alfred More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r624562277-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>624562277</t>
+  </si>
+  <si>
+    <t>10/13/2018</t>
+  </si>
+  <si>
+    <t>Great place, Great Staff, Awesome location. Wont disappoint!!!</t>
+  </si>
+  <si>
+    <t>Great place to stay. Staff was top notch. Highly recommend. Location perfect for west Hollywood. Marcus is the best and was friendly and we loved his personality. Room was huge, clean and way more than expected.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Great place to stay. Staff was top notch. Highly recommend. Location perfect for west Hollywood. Marcus is the best and was friendly and we loved his personality. Room was huge, clean and way more than expected.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r623743919-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>623743919</t>
+  </si>
+  <si>
+    <t>10/10/2018</t>
+  </si>
+  <si>
+    <t>comfy room in a perfectly located hotel in WEHO</t>
+  </si>
+  <si>
+    <t>8 minutes from vibrant Santa Monica boulevard, this all suites hotel offers very comfy rooms, with all amenities. very quiet, you can unwind from a busy day. the rooftop pool, even though small, offers a great view of L.A.. the staff at the reception was very kind and helpful. I must give a thumb's down for not including in the hotel price what they call "the leisure package" which is an additional $22 a night for internet, pool services, etc. really who those that in 2018? give us the total cost, simpler.same with room service, they add 22% top up plus delivery charges which can be understandable but why add 22% when you order a drink at the pool bar? not sure about that one.but aside from these minor things, certainly an hotel I'll go back toMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Andrew M, General Manager at Montrose West Hollywood, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>8 minutes from vibrant Santa Monica boulevard, this all suites hotel offers very comfy rooms, with all amenities. very quiet, you can unwind from a busy day. the rooftop pool, even though small, offers a great view of L.A.. the staff at the reception was very kind and helpful. I must give a thumb's down for not including in the hotel price what they call "the leisure package" which is an additional $22 a night for internet, pool services, etc. really who those that in 2018? give us the total cost, simpler.same with room service, they add 22% top up plus delivery charges which can be understandable but why add 22% when you order a drink at the pool bar? not sure about that one.but aside from these minor things, certainly an hotel I'll go back toMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r622999919-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>622999919</t>
+  </si>
+  <si>
+    <t>10/07/2018</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Me and my boyfriend had a fantastic stay here. The suite was so nice, very clean and large. There was enough space to relax and the large TV was a bonus. The rooftop has a fantastic view of Los Angeles and the bartender Justin was great. We loved how personalized the service, the boutique size allowed them to communicate with us better than any other stay we’ve had. Jose really made the extra effort in every way throughout our stay. I highly recommend this place to anyone looking to stay in Los Angeles. The location is fantastic and it’s all around a great find!MoreShow less</t>
+  </si>
+  <si>
+    <t>Me and my boyfriend had a fantastic stay here. The suite was so nice, very clean and large. There was enough space to relax and the large TV was a bonus. The rooftop has a fantastic view of Los Angeles and the bartender Justin was great. We loved how personalized the service, the boutique size allowed them to communicate with us better than any other stay we’ve had. Jose really made the extra effort in every way throughout our stay. I highly recommend this place to anyone looking to stay in Los Angeles. The location is fantastic and it’s all around a great find!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r622768939-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>622768939</t>
+  </si>
+  <si>
+    <t>10/06/2018</t>
+  </si>
+  <si>
+    <t>The fab 5</t>
+  </si>
+  <si>
+    <t>Let me begin by saying ..”I’m already homesick”.
+I travel often and meet a lot of people in my travels due to my business as well as.. well.. being me.
+Where I pamper myself is in food and hotel stay.. Le Montrose is reasonable in pricing and luxurious in every other way. I feel so at home. From Rafael and James at Valet.. who remembered me even from months ago.. to Markus, John and Greg at the front desk, I feel genuinely welcomed each time yet not that “oh God I’m not in the mood to talk right now” vibe.
+They have made my stay the part I look forward to most in my day.
+I even brought them tacos back one night. Haha
+The rooms are beautiful, clean, spacious and practical. They have everything you may have forgotten to pack. Comfortable and classy setting yet trendy in a way that doesn’t try too hard. Perfect for family, friends and business meets. 
+The location is excellent and Markus is ready to make decisions on where to eat 3 meals a day.. along with entertainment and the reasons why when you just don’t feel like thinking anymore for yourself  after a long day. I feel so pampered, at home and at need for nothing here. If you have stayed here before, come back! The renovation is perfect.
+I’m so happy to write this review.
+It’s nice to be inspired enough to.....Let me begin by saying ..”I’m already homesick”.I travel often and meet a lot of people in my travels due to my business as well as.. well.. being me.Where I pamper myself is in food and hotel stay.. Le Montrose is reasonable in pricing and luxurious in every other way. I feel so at home. From Rafael and James at Valet.. who remembered me even from months ago.. to Markus, John and Greg at the front desk, I feel genuinely welcomed each time yet not that “oh God I’m not in the mood to talk right now” vibe.They have made my stay the part I look forward to most in my day.I even brought them tacos back one night. HahaThe rooms are beautiful, clean, spacious and practical. They have everything you may have forgotten to pack. Comfortable and classy setting yet trendy in a way that doesn’t try too hard. Perfect for family, friends and business meets. The location is excellent and Markus is ready to make decisions on where to eat 3 meals a day.. along with entertainment and the reasons why when you just don’t feel like thinking anymore for yourself  after a long day. I feel so pampered, at home and at need for nothing here. If you have stayed here before, come back! The renovation is perfect.I’m so happy to write this review.It’s nice to be inspired enough to.. esp now-a-days..Go in and ask for any of the above names and tell them Nikki- the curly redhead sent you.. Thank you guys!!! I’ll see you soon. XoxoxoxMoreShow less</t>
+  </si>
+  <si>
+    <t>Let me begin by saying ..”I’m already homesick”.
+I travel often and meet a lot of people in my travels due to my business as well as.. well.. being me.
+Where I pamper myself is in food and hotel stay.. Le Montrose is reasonable in pricing and luxurious in every other way. I feel so at home. From Rafael and James at Valet.. who remembered me even from months ago.. to Markus, John and Greg at the front desk, I feel genuinely welcomed each time yet not that “oh God I’m not in the mood to talk right now” vibe.
+They have made my stay the part I look forward to most in my day.
+I even brought them tacos back one night. Haha
+The rooms are beautiful, clean, spacious and practical. They have everything you may have forgotten to pack. Comfortable and classy setting yet trendy in a way that doesn’t try too hard. Perfect for family, friends and business meets. 
+The location is excellent and Markus is ready to make decisions on where to eat 3 meals a day.. along with entertainment and the reasons why when you just don’t feel like thinking anymore for yourself  after a long day. I feel so pampered, at home and at need for nothing here. If you have stayed here before, come back! The renovation is perfect.
+I’m so happy to write this review.
+It’s nice to be inspired enough to.....Let me begin by saying ..”I’m already homesick”.I travel often and meet a lot of people in my travels due to my business as well as.. well.. being me.Where I pamper myself is in food and hotel stay.. Le Montrose is reasonable in pricing and luxurious in every other way. I feel so at home. From Rafael and James at Valet.. who remembered me even from months ago.. to Markus, John and Greg at the front desk, I feel genuinely welcomed each time yet not that “oh God I’m not in the mood to talk right now” vibe.They have made my stay the part I look forward to most in my day.I even brought them tacos back one night. HahaThe rooms are beautiful, clean, spacious and practical. They have everything you may have forgotten to pack. Comfortable and classy setting yet trendy in a way that doesn’t try too hard. Perfect for family, friends and business meets. The location is excellent and Markus is ready to make decisions on where to eat 3 meals a day.. along with entertainment and the reasons why when you just don’t feel like thinking anymore for yourself  after a long day. I feel so pampered, at home and at need for nothing here. If you have stayed here before, come back! The renovation is perfect.I’m so happy to write this review.It’s nice to be inspired enough to.. esp now-a-days..Go in and ask for any of the above names and tell them Nikki- the curly redhead sent you.. Thank you guys!!! I’ll see you soon. XoxoxoxMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r622018220-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>622018220</t>
+  </si>
+  <si>
+    <t>10/03/2018</t>
+  </si>
+  <si>
+    <t>Awesome stay</t>
+  </si>
+  <si>
+    <t>We stayed  at this beautiful boutique hotel for the 4 days we were in LA and the employees are super nice and so welcoming and helpful. They have great rooms that are sooo spacious. They have a great pool and downstairs they have this restaurant/bar where you can play shuffle board. We had so much fun. Bryan the executive chef there is just AMAZING, he made us feel so welcome and gave us great tips of places to go and see and restaurants we should check out. We will definitely be coming back. I miss it already MoreShow less</t>
+  </si>
+  <si>
+    <t>Andrew M, General Manager at Montrose West Hollywood, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>We stayed  at this beautiful boutique hotel for the 4 days we were in LA and the employees are super nice and so welcoming and helpful. They have great rooms that are sooo spacious. They have a great pool and downstairs they have this restaurant/bar where you can play shuffle board. We had so much fun. Bryan the executive chef there is just AMAZING, he made us feel so welcome and gave us great tips of places to go and see and restaurants we should check out. We will definitely be coming back. I miss it already More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r621586004-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>621586004</t>
+  </si>
+  <si>
+    <t>10/02/2018</t>
+  </si>
+  <si>
+    <t>Girls trip stay hike to Sunset Blvd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loved the room. Balcony, fireplace, kitchenette w/stove, living area, large bathroom area with vanity. Had fresh juice for breakfast from bar downstairs. Hiked up the street to Sunset Blvd and had some great pancakes at a diner. Unfortunately we were put in a room next to construction so we did not feel welcome and won't be back. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r620533072-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>620533072</t>
+  </si>
+  <si>
+    <t>09/29/2018</t>
+  </si>
+  <si>
+    <t>Great area - hotel approach needs refining</t>
+  </si>
+  <si>
+    <t>We stayed here as a family for two nights in September. First impressions were good, and walking into the room was fantastic with some nice decor, but there wasa musty smell that smelled like dogs and cats and when we had a look out at our small balcony, we could see and smell pet droppings from the room next door. That door remained closed the whole visit after that discovery. We also decided to use the hotel safe and found a nice discovery of a pair of underwear (not ours) from a previous guest. The pool was great, and the gym was also adequate, but I was charged a ridiculous price for a mediocre coffee so we did not dine in the hotel. The plus side was that the hotel is in a great location so you can walk to many great restaurants. After check out I checked some other reviews who had mentioned they had their credit card charged after they checked out for items they did not consume and sure enough, we had an unknown charge as well. When I called the hotel, they said this was for a $15 bottle of water. I told them we did not have this and they credited back to my credit card, but the inconvenience and issues with the stay left a sour taste. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here as a family for two nights in September. First impressions were good, and walking into the room was fantastic with some nice decor, but there wasa musty smell that smelled like dogs and cats and when we had a look out at our small balcony, we could see and smell pet droppings from the room next door. That door remained closed the whole visit after that discovery. We also decided to use the hotel safe and found a nice discovery of a pair of underwear (not ours) from a previous guest. The pool was great, and the gym was also adequate, but I was charged a ridiculous price for a mediocre coffee so we did not dine in the hotel. The plus side was that the hotel is in a great location so you can walk to many great restaurants. After check out I checked some other reviews who had mentioned they had their credit card charged after they checked out for items they did not consume and sure enough, we had an unknown charge as well. When I called the hotel, they said this was for a $15 bottle of water. I told them we did not have this and they credited back to my credit card, but the inconvenience and issues with the stay left a sour taste. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r620507806-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>620507806</t>
+  </si>
+  <si>
+    <t>Vino Vinyl Happy Hour - what else do you need to know?</t>
+  </si>
+  <si>
+    <t>Stayed here on a work trip recently and the staff provided such a bright spot after our days spent driving all over the industrial cities for meetings. Greg, Marcus, Logan, Marco, Arturo, Chef Bryan, Jennifer - everyone was so gracious, helpful, and fun! Vino vinyl happy hour was awesome, staff were ready with recommendations, directions - above and beyond. Rooms are suites and they are great, bed was comfortable and was grateful for wonderful water pressure - only wish there had been a chair on the patio. Quiet neighborhood, convenient and safe. I don’t get to California often, but I’ll stay here again if I do.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here on a work trip recently and the staff provided such a bright spot after our days spent driving all over the industrial cities for meetings. Greg, Marcus, Logan, Marco, Arturo, Chef Bryan, Jennifer - everyone was so gracious, helpful, and fun! Vino vinyl happy hour was awesome, staff were ready with recommendations, directions - above and beyond. Rooms are suites and they are great, bed was comfortable and was grateful for wonderful water pressure - only wish there had been a chair on the patio. Quiet neighborhood, convenient and safe. I don’t get to California often, but I’ll stay here again if I do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r617450944-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>617450944</t>
+  </si>
+  <si>
+    <t>09/17/2018</t>
+  </si>
+  <si>
+    <t>a secret gem in the heart of West hollywood walking distance to Melrose Place</t>
+  </si>
+  <si>
+    <t>Great service, wonderful suites. Breakfast could have been better since the kitchen seems to be a last minute thought. All in all much better than I expected for the very reasonable price. I would definitely recommend it and stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Andrew M, General Manager at Montrose West Hollywood, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Great service, wonderful suites. Breakfast could have been better since the kitchen seems to be a last minute thought. All in all much better than I expected for the very reasonable price. I would definitely recommend it and stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r617370939-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>617370939</t>
+  </si>
+  <si>
+    <t>A little of both</t>
+  </si>
+  <si>
+    <t>We come here every month for business and for the past 10 years the service has been amazing. Odie, Miquel, Fransico and Arturo are the best. So many places to go to in weho but we will always come here.MoreShow less</t>
+  </si>
+  <si>
+    <t>We come here every month for business and for the past 10 years the service has been amazing. Odie, Miquel, Fransico and Arturo are the best. So many places to go to in weho but we will always come here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r617109867-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>617109867</t>
+  </si>
+  <si>
+    <t>09/16/2018</t>
+  </si>
+  <si>
+    <t>Nice and comfortable! Great area!</t>
+  </si>
+  <si>
+    <t>I recently stayed here on a business trip and had a comfortable time here.  The staff was great and welcoming.  The rooms were spacious and clean.  The amenities was also a great addition to the room.  The parking price is pretty high, and is the only reason I would end up staying somewhere else in the future.  But if I didn't need a car on my trip, I would definitely stay here again.  Definitely check out the rooftop area as well.  I loved being up there relaxing in the mornings.  They have a pool up there.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>I recently stayed here on a business trip and had a comfortable time here.  The staff was great and welcoming.  The rooms were spacious and clean.  The amenities was also a great addition to the room.  The parking price is pretty high, and is the only reason I would end up staying somewhere else in the future.  But if I didn't need a car on my trip, I would definitely stay here again.  Definitely check out the rooftop area as well.  I loved being up there relaxing in the mornings.  They have a pool up there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r617099570-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>617099570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good hotel - great location </t>
+  </si>
+  <si>
+    <t>Really enjoyed our stay in this hotel in the centre of West Hollywood (WeHo). 
+The hotel itself is quite quirky with funky decor. The reception staff are very friendly
+and helpful as are the concierge guys. 
+The room we were upgraded to was a one bed suite which had tonnes of room and an extremely comfortable bed. There was also a good size bathroom and a kitchen off of the living area. 
+The hotel also has a roof top pool which was great to have with fantastic views of LA as well as it’s own bar and roof tennis court. 
+The hotel has a sort of lounge area which, in my opinion could really do with a bit of LA sparkle. I think for a hotel charging the prices they do there could be a more comfortable lounge area making better space of the room. The is also a cafe area which, again isn’t really somewhere you would want to ha g out or relax in. It’s functional but that just it. 
+I was also very disappointed with the WiFi in the hotel. It was quite patchy and even when I opted for the paid service for higher broadband it really didn’t improve. I think a hotel charging $300.00 per night + taxes really should have much better broadband and certainly not have a paid option - not in these days! 
+I would certainly recommend this hotel but I think...Really enjoyed our stay in this hotel in the centre of West Hollywood (WeHo). The hotel itself is quite quirky with funky decor. The reception staff are very friendlyand helpful as are the concierge guys. The room we were upgraded to was a one bed suite which had tonnes of room and an extremely comfortable bed. There was also a good size bathroom and a kitchen off of the living area. The hotel also has a roof top pool which was great to have with fantastic views of LA as well as it’s own bar and roof tennis court. The hotel has a sort of lounge area which, in my opinion could really do with a bit of LA sparkle. I think for a hotel charging the prices they do there could be a more comfortable lounge area making better space of the room. The is also a cafe area which, again isn’t really somewhere you would want to ha g out or relax in. It’s functional but that just it. I was also very disappointed with the WiFi in the hotel. It was quite patchy and even when I opted for the paid service for higher broadband it really didn’t improve. I think a hotel charging $300.00 per night + taxes really should have much better broadband and certainly not have a paid option - not in these days! I would certainly recommend this hotel but I think with a few tweaks a good hotel could be a great hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>Really enjoyed our stay in this hotel in the centre of West Hollywood (WeHo). 
+The hotel itself is quite quirky with funky decor. The reception staff are very friendly
+and helpful as are the concierge guys. 
+The room we were upgraded to was a one bed suite which had tonnes of room and an extremely comfortable bed. There was also a good size bathroom and a kitchen off of the living area. 
+The hotel also has a roof top pool which was great to have with fantastic views of LA as well as it’s own bar and roof tennis court. 
+The hotel has a sort of lounge area which, in my opinion could really do with a bit of LA sparkle. I think for a hotel charging the prices they do there could be a more comfortable lounge area making better space of the room. The is also a cafe area which, again isn’t really somewhere you would want to ha g out or relax in. It’s functional but that just it. 
+I was also very disappointed with the WiFi in the hotel. It was quite patchy and even when I opted for the paid service for higher broadband it really didn’t improve. I think a hotel charging $300.00 per night + taxes really should have much better broadband and certainly not have a paid option - not in these days! 
+I would certainly recommend this hotel but I think...Really enjoyed our stay in this hotel in the centre of West Hollywood (WeHo). The hotel itself is quite quirky with funky decor. The reception staff are very friendlyand helpful as are the concierge guys. The room we were upgraded to was a one bed suite which had tonnes of room and an extremely comfortable bed. There was also a good size bathroom and a kitchen off of the living area. The hotel also has a roof top pool which was great to have with fantastic views of LA as well as it’s own bar and roof tennis court. The hotel has a sort of lounge area which, in my opinion could really do with a bit of LA sparkle. I think for a hotel charging the prices they do there could be a more comfortable lounge area making better space of the room. The is also a cafe area which, again isn’t really somewhere you would want to ha g out or relax in. It’s functional but that just it. I was also very disappointed with the WiFi in the hotel. It was quite patchy and even when I opted for the paid service for higher broadband it really didn’t improve. I think a hotel charging $300.00 per night + taxes really should have much better broadband and certainly not have a paid option - not in these days! I would certainly recommend this hotel but I think with a few tweaks a good hotel could be a great hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r615866724-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>615866724</t>
+  </si>
+  <si>
+    <t>09/11/2018</t>
+  </si>
+  <si>
+    <t>NOT ANY MORE THANKS</t>
+  </si>
+  <si>
+    <t>The hotel has recently been renewed.The rooms smell terrible and they are incredibly kitsch - I asked for 2 room changes due to this. Bathroom is nice and big. Swimmingpool on the roof quite poor and old, it seems to be in a 70s movie with dirty signs and walls.Breakfast is quite avarafe in terms of variety and definetely expensive.Far from a **** and very expensive for what it is.MoreShow less</t>
+  </si>
+  <si>
+    <t>Andrew M, General Manager at Montrose West Hollywood, responded to this reviewResponded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>The hotel has recently been renewed.The rooms smell terrible and they are incredibly kitsch - I asked for 2 room changes due to this. Bathroom is nice and big. Swimmingpool on the roof quite poor and old, it seems to be in a 70s movie with dirty signs and walls.Breakfast is quite avarafe in terms of variety and definetely expensive.Far from a **** and very expensive for what it is.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r614861103-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>614861103</t>
+  </si>
+  <si>
+    <t>09/08/2018</t>
+  </si>
+  <si>
+    <t>5 day whirlwind birthday celebration !!</t>
+  </si>
+  <si>
+    <t>Travelled to Los Angeles to celebrate my cousin's 50th birthday. This hotel was central to all the activities and destinations we wanted to visit. Front desk service was amazing and a big thanks to Greg for all his assistance with our stay.  You truly made our trip that much more enjoyable and memorable.  Loved the vinyl and vino hour each evening. The hotel did not disappoint and would return in a heart beat. Love the boutique decor of the rooms.  Giant tv screens in the room!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Andrew M, General Manager at Montrose West Hollywood, responded to this reviewResponded September 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2018</t>
+  </si>
+  <si>
+    <t>Travelled to Los Angeles to celebrate my cousin's 50th birthday. This hotel was central to all the activities and destinations we wanted to visit. Front desk service was amazing and a big thanks to Greg for all his assistance with our stay.  You truly made our trip that much more enjoyable and memorable.  Loved the vinyl and vino hour each evening. The hotel did not disappoint and would return in a heart beat. Love the boutique decor of the rooms.  Giant tv screens in the room!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r614552458-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>614552458</t>
+  </si>
+  <si>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>Montrose</t>
+  </si>
+  <si>
+    <t>What an amazing place!!  The renovation is beautiful and the location is perfect. We stayed for almost 3 weeks and it felt like home. This is because the staff was so friendly and welcoming. They all know your name from the start.Especially nice is the rooftop pool and bar. The main bartender, Kevin, is also why.  Smiles everyday and will do anything for you. MoreShow less</t>
+  </si>
+  <si>
+    <t>What an amazing place!!  The renovation is beautiful and the location is perfect. We stayed for almost 3 weeks and it felt like home. This is because the staff was so friendly and welcoming. They all know your name from the start.Especially nice is the rooftop pool and bar. The main bartender, Kevin, is also why.  Smiles everyday and will do anything for you. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r614471326-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>614471326</t>
+  </si>
+  <si>
+    <t>09/06/2018</t>
+  </si>
+  <si>
+    <t>Pleased</t>
+  </si>
+  <si>
+    <t>Very stylish room with a nice comfortable bed. The rooftop pool was staff was very attentive. I had a small leak in my faucet and they promptly sent Renaldo from engineering. He was very efficient and friendly. I will be back for sureMoreShow less</t>
+  </si>
+  <si>
+    <t>Very stylish room with a nice comfortable bed. The rooftop pool was staff was very attentive. I had a small leak in my faucet and they promptly sent Renaldo from engineering. He was very efficient and friendly. I will be back for sureMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r614470430-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>614470430</t>
+  </si>
+  <si>
+    <t>Very friendly and helpful staff!</t>
+  </si>
+  <si>
+    <t>What a beautiful room! I was pleasantly surprised by the stylish accommodations at Montrose! I had a slight issue with my restroom light and was very pleased by Antonio from engineering. He was very knowledgable and friendly and got the problem fixed in a jiff! Will definitely be recommending this place to my friends!MoreShow less</t>
+  </si>
+  <si>
+    <t>What a beautiful room! I was pleasantly surprised by the stylish accommodations at Montrose! I had a slight issue with my restroom light and was very pleased by Antonio from engineering. He was very knowledgable and friendly and got the problem fixed in a jiff! Will definitely be recommending this place to my friends!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r614227473-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>614227473</t>
+  </si>
+  <si>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>Amazing Vacation Spot</t>
+  </si>
+  <si>
+    <t>My name is Clarissa, 2 of my friends and I planned a trip to California and we came across the Le Montrose West Hollywood hotel ! When we got there the Front desk employees were extremely helpful and inviting. They answered any and every questions we had. Teny made the experience very easy and enjoyable! They made it feel very welcoming ! When we got to the room we were in shock at how nice it was ! It was so clean and in such great shape ! Everyone is so sweet and very helpful. No matter what employee you ask, you will get an answer! I highly recommend staying here ! It is such a great spot and is located in such a perfect area ! There is so much around the hotel whether it is places to shop or food ! 10/10 would recommend!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Andrew M, General Manager at Montrose West Hollywood, responded to this reviewResponded September 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2018</t>
+  </si>
+  <si>
+    <t>My name is Clarissa, 2 of my friends and I planned a trip to California and we came across the Le Montrose West Hollywood hotel ! When we got there the Front desk employees were extremely helpful and inviting. They answered any and every questions we had. Teny made the experience very easy and enjoyable! They made it feel very welcoming ! When we got to the room we were in shock at how nice it was ! It was so clean and in such great shape ! Everyone is so sweet and very helpful. No matter what employee you ask, you will get an answer! I highly recommend staying here ! It is such a great spot and is located in such a perfect area ! There is so much around the hotel whether it is places to shop or food ! 10/10 would recommend!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r614011258-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>614011258</t>
+  </si>
+  <si>
+    <t>A wonderful stay. Highly recommend.</t>
+  </si>
+  <si>
+    <t>I stayed here for two weeks with my partner, son and friend. I cannot thank the staff enough for their hospitality, warmth and kindness. 
+A boutique hotel with a lovely friendly feel to it, I found that Le Montrose  gave me the privacy and quiet that I needed whilst still being centrally located. Staff, at all levels, went out of their way to make sure our stay was particularly comfortable and relaxed. We were well looked after. The hotel is very well appointed; spacious suites, modern, chic, relaxed, with excellent dining and bar services. Staff are discreet and personable.   There is a pool on the roof with an amazing view of the city, and a perfectly placed bar which most fortunately for guests is run by bartender Kevin. 
+I wanted to mention Kevin in particular; Thank you. Guests are very lucky to have you, you are absolutely key to the energy of the place and your drinks, warmth and service are stellar. Youre indispensible and you made my trip. Your knowledge of LA, conversation, attentiveness, kindness and may I add skill at creating the most perfect drinks for me every time, I am ever grateful for. You make the place what it is and it is because of you that I shall be returning to Le Montrose in the future.  Thank you. 
+I also want to mention Chef Brian; thank you.  For the wine tastings and the amazing food (try...I stayed here for two weeks with my partner, son and friend. I cannot thank the staff enough for their hospitality, warmth and kindness. A boutique hotel with a lovely friendly feel to it, I found that Le Montrose  gave me the privacy and quiet that I needed whilst still being centrally located. Staff, at all levels, went out of their way to make sure our stay was particularly comfortable and relaxed. We were well looked after. The hotel is very well appointed; spacious suites, modern, chic, relaxed, with excellent dining and bar services. Staff are discreet and personable.   There is a pool on the roof with an amazing view of the city, and a perfectly placed bar which most fortunately for guests is run by bartender Kevin. I wanted to mention Kevin in particular; Thank you. Guests are very lucky to have you, you are absolutely key to the energy of the place and your drinks, warmth and service are stellar. Youre indispensible and you made my trip. Your knowledge of LA, conversation, attentiveness, kindness and may I add skill at creating the most perfect drinks for me every time, I am ever grateful for. You make the place what it is and it is because of you that I shall be returning to Le Montrose in the future.  Thank you. I also want to mention Chef Brian; thank you.  For the wine tastings and the amazing food (try everything), your conversation and friendliness, knowledge and sense of humour; Guests are most lucky to have you. Chad, for the conversations at the wine tastings and making me feel at home, thank you. The door and portering staff are also fantastic. Discreet and very helpful. In essence, for me, the staff make Le Montrose a very special place to stay indeed.  They helped make my stay what it was; Wonderful.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for two weeks with my partner, son and friend. I cannot thank the staff enough for their hospitality, warmth and kindness. 
+A boutique hotel with a lovely friendly feel to it, I found that Le Montrose  gave me the privacy and quiet that I needed whilst still being centrally located. Staff, at all levels, went out of their way to make sure our stay was particularly comfortable and relaxed. We were well looked after. The hotel is very well appointed; spacious suites, modern, chic, relaxed, with excellent dining and bar services. Staff are discreet and personable.   There is a pool on the roof with an amazing view of the city, and a perfectly placed bar which most fortunately for guests is run by bartender Kevin. 
+I wanted to mention Kevin in particular; Thank you. Guests are very lucky to have you, you are absolutely key to the energy of the place and your drinks, warmth and service are stellar. Youre indispensible and you made my trip. Your knowledge of LA, conversation, attentiveness, kindness and may I add skill at creating the most perfect drinks for me every time, I am ever grateful for. You make the place what it is and it is because of you that I shall be returning to Le Montrose in the future.  Thank you. 
+I also want to mention Chef Brian; thank you.  For the wine tastings and the amazing food (try...I stayed here for two weeks with my partner, son and friend. I cannot thank the staff enough for their hospitality, warmth and kindness. A boutique hotel with a lovely friendly feel to it, I found that Le Montrose  gave me the privacy and quiet that I needed whilst still being centrally located. Staff, at all levels, went out of their way to make sure our stay was particularly comfortable and relaxed. We were well looked after. The hotel is very well appointed; spacious suites, modern, chic, relaxed, with excellent dining and bar services. Staff are discreet and personable.   There is a pool on the roof with an amazing view of the city, and a perfectly placed bar which most fortunately for guests is run by bartender Kevin. I wanted to mention Kevin in particular; Thank you. Guests are very lucky to have you, you are absolutely key to the energy of the place and your drinks, warmth and service are stellar. Youre indispensible and you made my trip. Your knowledge of LA, conversation, attentiveness, kindness and may I add skill at creating the most perfect drinks for me every time, I am ever grateful for. You make the place what it is and it is because of you that I shall be returning to Le Montrose in the future.  Thank you. I also want to mention Chef Brian; thank you.  For the wine tastings and the amazing food (try everything), your conversation and friendliness, knowledge and sense of humour; Guests are most lucky to have you. Chad, for the conversations at the wine tastings and making me feel at home, thank you. The door and portering staff are also fantastic. Discreet and very helpful. In essence, for me, the staff make Le Montrose a very special place to stay indeed.  They helped make my stay what it was; Wonderful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r611774182-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>611774182</t>
+  </si>
+  <si>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>Frequent Guest</t>
+  </si>
+  <si>
+    <t>I’ve been staying here almost every month for more than 15 years. While the staff does change over time it’s always friendly.   The front desk staff the management staff and the guys at meet you at the curb are all terrific. In particular I thank you to Francisco and Logan and Elliott and the whole rest of the gang out front.   Love the last cation too.  Walking distance to lots of stuff. MoreShow less</t>
+  </si>
+  <si>
+    <t>Andrew M, General Manager at Montrose West Hollywood, responded to this reviewResponded August 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2018</t>
+  </si>
+  <si>
+    <t>I’ve been staying here almost every month for more than 15 years. While the staff does change over time it’s always friendly.   The front desk staff the management staff and the guys at meet you at the curb are all terrific. In particular I thank you to Francisco and Logan and Elliott and the whole rest of the gang out front.   Love the last cation too.  Walking distance to lots of stuff. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r611740314-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>611740314</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>I’m very happy here which is important as I’m staying for at least a month maybe longer. The suites are spacious and comfortable and the staff is very helpful and friendly I especially like Logan who can’t do enough even opens all my bottles for me since I have a bad hand. They are missing a towel rack and a full length mirror but they promised they will remedy that situation right away. Otherwise great including the location. Although I haven’t tried the food but I’m sure it’s good.MoreShow less</t>
+  </si>
+  <si>
+    <t>I’m very happy here which is important as I’m staying for at least a month maybe longer. The suites are spacious and comfortable and the staff is very helpful and friendly I especially like Logan who can’t do enough even opens all my bottles for me since I have a bad hand. They are missing a towel rack and a full length mirror but they promised they will remedy that situation right away. Otherwise great including the location. Although I haven’t tried the food but I’m sure it’s good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r608639021-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>608639021</t>
+  </si>
+  <si>
+    <t>08/20/2018</t>
+  </si>
+  <si>
+    <t>Nice rooms for sure but...</t>
+  </si>
+  <si>
+    <t>Let's start with the positives. First my room (booked as Petite Queen Suite but may have gotten an upgrade?) was definitely very spacious and well appointed with stylish furniture. Think party pad with cool couches and chairs, a giant flat screen TV, fireplace, hip mags etc...  (but no desk). The bathroom was small but also very stylish and recently renovated (as were the rooms).The rest of the property needs work! The hallways didn't get an entirely new facelift and seem at odds with the rooms. Who cares, you say, you don't plan to spend much time there. Fair point, but unfortunately, the same can be said of the small pool and the dark and uninviting quiet restaurant. There is a very small lobby and a small coffee shop which seem to only be open for a few hours in the morning.Add a $20 "amenity" fee per night + $42 for parking per night and I'd look around for another option next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Andrew M, General Manager at Montrose West Hollywood, responded to this reviewResponded August 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2018</t>
+  </si>
+  <si>
+    <t>Let's start with the positives. First my room (booked as Petite Queen Suite but may have gotten an upgrade?) was definitely very spacious and well appointed with stylish furniture. Think party pad with cool couches and chairs, a giant flat screen TV, fireplace, hip mags etc...  (but no desk). The bathroom was small but also very stylish and recently renovated (as were the rooms).The rest of the property needs work! The hallways didn't get an entirely new facelift and seem at odds with the rooms. Who cares, you say, you don't plan to spend much time there. Fair point, but unfortunately, the same can be said of the small pool and the dark and uninviting quiet restaurant. There is a very small lobby and a small coffee shop which seem to only be open for a few hours in the morning.Add a $20 "amenity" fee per night + $42 for parking per night and I'd look around for another option next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r606542298-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>606542298</t>
+  </si>
+  <si>
+    <t>08/14/2018</t>
+  </si>
+  <si>
+    <t>5 stars for room and staff!!!</t>
+  </si>
+  <si>
+    <t>Had an excellent experience  in our recent trip to LA. Great room space, spacious bathroom, it was very perfect for our family of five. Very friendly staff, always willing to help and give a great service. Nice location. Couldn't be happier with our stay, definitely I recommend the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Had an excellent experience  in our recent trip to LA. Great room space, spacious bathroom, it was very perfect for our family of five. Very friendly staff, always willing to help and give a great service. Nice location. Couldn't be happier with our stay, definitely I recommend the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r606045149-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>606045149</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>Loved It!</t>
+  </si>
+  <si>
+    <t>Had an amazing stay at the Montrose! They were so accommodating to any requests we had. We stayed in the Vista suite our room wasn’t quite ready but we were given free welcome drinks on the rooftop while we waited. Bar staff was great and notified us that our room was ready. Our room was amazing it was like a little home away from home. We were welcomed with champagne and strawberries (when booking they said they would do something special since we were celebrating a birthday). Absolutely loved the room and our little deck that was connected to the room. I couldn’t be happier with our stay and the service we received. Would definitely come back for another stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Had an amazing stay at the Montrose! They were so accommodating to any requests we had. We stayed in the Vista suite our room wasn’t quite ready but we were given free welcome drinks on the rooftop while we waited. Bar staff was great and notified us that our room was ready. Our room was amazing it was like a little home away from home. We were welcomed with champagne and strawberries (when booking they said they would do something special since we were celebrating a birthday). Absolutely loved the room and our little deck that was connected to the room. I couldn’t be happier with our stay and the service we received. Would definitely come back for another stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r605188232-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>605188232</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>5 stars for their staff</t>
+  </si>
+  <si>
+    <t>We recently stayed a total of ten days at the Montrose and I have to say their customer service is wonderful! The gentlemen in Valet parking were all very polite and helpful. We dined in a few times and our waiters were amazing! Everyone from the front desk staff to the room service ladies were sweet. They made us feel at home. Our entire experience was great. We will definitely be returning in the near future. MoreShow less</t>
+  </si>
+  <si>
+    <t>Andrew M, General Manager at Montrose West Hollywood, responded to this reviewResponded August 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2018</t>
+  </si>
+  <si>
+    <t>We recently stayed a total of ten days at the Montrose and I have to say their customer service is wonderful! The gentlemen in Valet parking were all very polite and helpful. We dined in a few times and our waiters were amazing! Everyone from the front desk staff to the room service ladies were sweet. They made us feel at home. Our entire experience was great. We will definitely be returning in the near future. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r604123443-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>604123443</t>
+  </si>
+  <si>
+    <t>08/07/2018</t>
+  </si>
+  <si>
+    <t>Summer 2018 Vacation in LA</t>
+  </si>
+  <si>
+    <t>It's a long story...but to summarize, we rented a VRBO with a check in time of 4pm on 7/31/18.  We walked into the home we rented which was really pretty - however all the beds were unmade, wet towels everywhere, dirty dishes in the kitchen, etc.  We talked to the owners and tried to workout a refund...hopefully that's going to happen.
+In the meantime, we went to a few hotels in hopes for a place to stay for the 4 nights we were going to be in LA.  We ended up at the Montrose in West Hollywood.  It was about the medium price we were looking for.  At the counter was a guy named Logan.  He helped us out beyond what we could have asked for.  He worked on the room rate, etc.  One of my big concerns was paying for hotel parking....most hotels charge around $50 per night just to park your car.  Logan listened to our VRBO nightmare.  My daughter and I felt like Logan really understood our situation and stress level at that point, and he worked with his manager and was able to give us a rate that we were satisfied with...and on top of it, he didn't charge us the nightly parking rate.  Again, Logan knew we had a rough start to our trip, he wanted to help out a potential new customer for the stay, and was wise enough to accommodate us in an...It's a long story...but to summarize, we rented a VRBO with a check in time of 4pm on 7/31/18.  We walked into the home we rented which was really pretty - however all the beds were unmade, wet towels everywhere, dirty dishes in the kitchen, etc.  We talked to the owners and tried to workout a refund...hopefully that's going to happen.In the meantime, we went to a few hotels in hopes for a place to stay for the 4 nights we were going to be in LA.  We ended up at the Montrose in West Hollywood.  It was about the medium price we were looking for.  At the counter was a guy named Logan.  He helped us out beyond what we could have asked for.  He worked on the room rate, etc.  One of my big concerns was paying for hotel parking....most hotels charge around $50 per night just to park your car.  Logan listened to our VRBO nightmare.  My daughter and I felt like Logan really understood our situation and stress level at that point, and he worked with his manager and was able to give us a rate that we were satisfied with...and on top of it, he didn't charge us the nightly parking rate.  Again, Logan knew we had a rough start to our trip, he wanted to help out a potential new customer for the stay, and was wise enough to accommodate us in an effort for future business to the Montrose. Whenever we go back, we will 100% stay at the Montrose because of Logan. Also, I haven't mentioned Rafa.  Rafa helps out around the boutique hotel in many areas.   He was a delight and so sweet!!  He couldn't have been more accommodating and was always super helpful!  Between Rafa and Logan, and their attention and kindness, it definitely made up for our VRBO debacle!Cheers to the Montrose West Hollywood!  If you go for a stay, you won't be sorry...and if you do, ask for Logan and ask for Rafa!!!   These two guys will make your stay great and make you smile!!!!!!!!!!Sincerely,Lisa &amp; AllieMoreShow less</t>
+  </si>
+  <si>
+    <t>It's a long story...but to summarize, we rented a VRBO with a check in time of 4pm on 7/31/18.  We walked into the home we rented which was really pretty - however all the beds were unmade, wet towels everywhere, dirty dishes in the kitchen, etc.  We talked to the owners and tried to workout a refund...hopefully that's going to happen.
+In the meantime, we went to a few hotels in hopes for a place to stay for the 4 nights we were going to be in LA.  We ended up at the Montrose in West Hollywood.  It was about the medium price we were looking for.  At the counter was a guy named Logan.  He helped us out beyond what we could have asked for.  He worked on the room rate, etc.  One of my big concerns was paying for hotel parking....most hotels charge around $50 per night just to park your car.  Logan listened to our VRBO nightmare.  My daughter and I felt like Logan really understood our situation and stress level at that point, and he worked with his manager and was able to give us a rate that we were satisfied with...and on top of it, he didn't charge us the nightly parking rate.  Again, Logan knew we had a rough start to our trip, he wanted to help out a potential new customer for the stay, and was wise enough to accommodate us in an...It's a long story...but to summarize, we rented a VRBO with a check in time of 4pm on 7/31/18.  We walked into the home we rented which was really pretty - however all the beds were unmade, wet towels everywhere, dirty dishes in the kitchen, etc.  We talked to the owners and tried to workout a refund...hopefully that's going to happen.In the meantime, we went to a few hotels in hopes for a place to stay for the 4 nights we were going to be in LA.  We ended up at the Montrose in West Hollywood.  It was about the medium price we were looking for.  At the counter was a guy named Logan.  He helped us out beyond what we could have asked for.  He worked on the room rate, etc.  One of my big concerns was paying for hotel parking....most hotels charge around $50 per night just to park your car.  Logan listened to our VRBO nightmare.  My daughter and I felt like Logan really understood our situation and stress level at that point, and he worked with his manager and was able to give us a rate that we were satisfied with...and on top of it, he didn't charge us the nightly parking rate.  Again, Logan knew we had a rough start to our trip, he wanted to help out a potential new customer for the stay, and was wise enough to accommodate us in an effort for future business to the Montrose. Whenever we go back, we will 100% stay at the Montrose because of Logan. Also, I haven't mentioned Rafa.  Rafa helps out around the boutique hotel in many areas.   He was a delight and so sweet!!  He couldn't have been more accommodating and was always super helpful!  Between Rafa and Logan, and their attention and kindness, it definitely made up for our VRBO debacle!Cheers to the Montrose West Hollywood!  If you go for a stay, you won't be sorry...and if you do, ask for Logan and ask for Rafa!!!   These two guys will make your stay great and make you smile!!!!!!!!!!Sincerely,Lisa &amp; AllieMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r604108966-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>604108966</t>
+  </si>
+  <si>
+    <t>The Montrose</t>
+  </si>
+  <si>
+    <t>We had such an amazing stay at the Montrose West Hollywood! One of the best hotel experiences of my life, the staff is so wonderful, Logan did an amazing job of making our stay comfortable and Rafa made sure our car was well taken care of the entire time. I would definitely recommend this hotel to anyone if they are looking to stay in West Hollywood.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had such an amazing stay at the Montrose West Hollywood! One of the best hotel experiences of my life, the staff is so wonderful, Logan did an amazing job of making our stay comfortable and Rafa made sure our car was well taken care of the entire time. I would definitely recommend this hotel to anyone if they are looking to stay in West Hollywood.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r603680451-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>603680451</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>My birthday</t>
+  </si>
+  <si>
+    <t>I have been to L.A. area a few times and this is the first time I stayed at your hotel. I stayed in the king suite which was better then I anticipated. I wanted to also note you have an excellent staff on board for my stay. I wanted to especially mention a gentleman by the name of Preston who checked me in and made me feel very welcomed, for this reason I will return and also recommend this hotel to others I know coming to California. Please keep up the great service as i will be back. Thank you for making my stay enjoyable.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have been to L.A. area a few times and this is the first time I stayed at your hotel. I stayed in the king suite which was better then I anticipated. I wanted to also note you have an excellent staff on board for my stay. I wanted to especially mention a gentleman by the name of Preston who checked me in and made me feel very welcomed, for this reason I will return and also recommend this hotel to others I know coming to California. Please keep up the great service as i will be back. Thank you for making my stay enjoyable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r603537904-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>603537904</t>
+  </si>
+  <si>
+    <t>Amazing Location + Service</t>
+  </si>
+  <si>
+    <t>Place was hip out of a movie set, furnished and lavished with trendy art deco. The room was super comfortable with a beautiful bathroom and shower. Conveniantly located, staff was at your fingertips and had a beautiful view of the city. MoreShow less</t>
+  </si>
+  <si>
+    <t>Andrew M, General Manager at Montrose West Hollywood, responded to this reviewResponded August 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2018</t>
+  </si>
+  <si>
+    <t>Place was hip out of a movie set, furnished and lavished with trendy art deco. The room was super comfortable with a beautiful bathroom and shower. Conveniantly located, staff was at your fingertips and had a beautiful view of the city. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r603321672-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>603321672</t>
+  </si>
+  <si>
+    <t>Fantastic Hotel for Business or Leisure!</t>
+  </si>
+  <si>
+    <t>My recent stay at Montrose West Hollywood was for business, but added an extra day to relax by the rooftop pool.  This hotel is minutes from Beverly Hills and Hollywood, yet on a quiet residential street.  There is thoughtful communal work space just off the lobby which also has a shuffle board and piano for evening entertainment.  Our room was spacious and stylish (love the hand chair), with two oversized TV’s, and convenient kitchenette.  The bathrooms are large, nicely designed with good counter space and  a walk-in shower.  I agree with these reviews, staff was very friendly and accommodating.  Will definitely be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Andrew M, General Manager at Montrose West Hollywood, responded to this reviewResponded August 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2018</t>
+  </si>
+  <si>
+    <t>My recent stay at Montrose West Hollywood was for business, but added an extra day to relax by the rooftop pool.  This hotel is minutes from Beverly Hills and Hollywood, yet on a quiet residential street.  There is thoughtful communal work space just off the lobby which also has a shuffle board and piano for evening entertainment.  Our room was spacious and stylish (love the hand chair), with two oversized TV’s, and convenient kitchenette.  The bathrooms are large, nicely designed with good counter space and  a walk-in shower.  I agree with these reviews, staff was very friendly and accommodating.  Will definitely be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r603053750-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>603053750</t>
+  </si>
+  <si>
+    <t>08/05/2018</t>
+  </si>
+  <si>
+    <t>Amazing stay</t>
+  </si>
+  <si>
+    <t>Both times I’ve been here with my family we were helped by Preston . His service was amazing, he was really nice and helped us get into out rooms quicker. I would totally recommend staying here .no only  is the service great but the rooms are also very comfortable and the food is great!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Both times I’ve been here with my family we were helped by Preston . His service was amazing, he was really nice and helped us get into out rooms quicker. I would totally recommend staying here .no only  is the service great but the rooms are also very comfortable and the food is great!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r603013415-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>603013415</t>
+  </si>
+  <si>
+    <t>Amazing!</t>
+  </si>
+  <si>
+    <t>Absolutely loved this hotel. It has all the comforts of home. Large suites, comfortable beds, quiet residential area and everything was super clean. The best was being greeted by a wonderful staff every step of the way. A big thank you to Preston who couldn’t have been nicer. He made sure we were having the best time and we did!  The completed renovations will make this lovely hotel our go to each time we visit LA!MoreShow less</t>
+  </si>
+  <si>
+    <t>Absolutely loved this hotel. It has all the comforts of home. Large suites, comfortable beds, quiet residential area and everything was super clean. The best was being greeted by a wonderful staff every step of the way. A big thank you to Preston who couldn’t have been nicer. He made sure we were having the best time and we did!  The completed renovations will make this lovely hotel our go to each time we visit LA!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r600315079-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>600315079</t>
+  </si>
+  <si>
+    <t>07/27/2018</t>
+  </si>
+  <si>
+    <t>Great hotel and location</t>
+  </si>
+  <si>
+    <t>5 of us stayed in a suite for 3 nights. I would recommend this place. The location is great, just a few minutes walk to bustling West Hollywood or quiet Beverly Hills. The suite was nicely furnished. The pool area is very cool. My kids enjoyed playing tennis on the roof. Car parking charge is a rip off but that seems standard in this area and there are plenty of cheaper options nearby if you want. Overall it was good value though.MoreShow less</t>
+  </si>
+  <si>
+    <t>Andrew M, General Manager at Montrose West Hollywood, responded to this reviewResponded July 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2018</t>
+  </si>
+  <si>
+    <t>5 of us stayed in a suite for 3 nights. I would recommend this place. The location is great, just a few minutes walk to bustling West Hollywood or quiet Beverly Hills. The suite was nicely furnished. The pool area is very cool. My kids enjoyed playing tennis on the roof. Car parking charge is a rip off but that seems standard in this area and there are plenty of cheaper options nearby if you want. Overall it was good value though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r599330379-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>599330379</t>
+  </si>
+  <si>
+    <t>07/24/2018</t>
+  </si>
+  <si>
+    <t>Business visit</t>
+  </si>
+  <si>
+    <t>The hotel location is perfect. The front desk attendant Preston was amazing. He was very professional and attentive. He addressed needs immediately and maintained a pleasant disposition. Adam was also very helpful and accomodating. Valet is timely and professional. There are things that could be improved on such as housekeeping. But overall, these individuals are the reason I would return. Great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel location is perfect. The front desk attendant Preston was amazing. He was very professional and attentive. He addressed needs immediately and maintained a pleasant disposition. Adam was also very helpful and accomodating. Valet is timely and professional. There are things that could be improved on such as housekeeping. But overall, these individuals are the reason I would return. Great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r598646474-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>598646474</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Really Great place</t>
+  </si>
+  <si>
+    <t>Friendly staff, room had a real wow factor, location was good as most everything in LA involves a Taxi anyway, Pool and Sun loungers (with Bar) on roof was a nice touch, on the pricey side, but i experienced cheaper Hotels on the trip prior to this, so really enjoyed the luxury feel of the place, my only slight moan was the limited food choices nearby, Breakfast available in the hotel was perfectly fine, but quite pricey, i would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Friendly staff, room had a real wow factor, location was good as most everything in LA involves a Taxi anyway, Pool and Sun loungers (with Bar) on roof was a nice touch, on the pricey side, but i experienced cheaper Hotels on the trip prior to this, so really enjoyed the luxury feel of the place, my only slight moan was the limited food choices nearby, Breakfast available in the hotel was perfectly fine, but quite pricey, i would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r597350544-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>597350544</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>Fun Trip - Great Hotel</t>
+  </si>
+  <si>
+    <t>Great attentive staff from the moment you arrive until you leave.  location nicely situated in West Hollywood, easy access to most anything.   Room was large and clean, with a small kitchen nook.  Will come again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great attentive staff from the moment you arrive until you leave.  location nicely situated in West Hollywood, easy access to most anything.   Room was large and clean, with a small kitchen nook.  Will come again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r596897024-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>596897024</t>
+  </si>
+  <si>
+    <t>Fabulous location, amazing service!</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel multiple times and, as usual, this was above expectations!  Combo business trip/vacation, this location is quiet, well equipped and the staff is friendly and helpful. Love itMoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel multiple times and, as usual, this was above expectations!  Combo business trip/vacation, this location is quiet, well equipped and the staff is friendly and helpful. Love itMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r596400583-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>596400583</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best rooms in West Hollywood </t>
+  </si>
+  <si>
+    <t>First time here but apparently they just finished a massive update of all the rooms, and let me tell you, it was worth it. Stayed in a king suite that was the size of a 1 bedroom apartment. It’s set up studio style, but the living room area is a couple of steps down from the bedroom so it feels separate. The furnishings are modern and comfortable, and the two TVs are massive. Like 70-80inches. (1 Tv the bedroom and 1 in the living room.) There is a kitchenette that I didn’t use but it had a stove, oven, etc. so you could stay long term and cook your own meals. The bathroom was also spacious (two sinks) and had all brand new tiling and a large shower. I liked that the closet was located in the bathroom so you have everything you need in one room. Service:Valet parking, a little pricy at $42/ day but what else are you going to do? Valets were quick and friendly. Front desk and check-in process was a breeze and they were helpful. Definitely will make this my hotel of choice for nights in West Hollywood. MoreShow less</t>
+  </si>
+  <si>
+    <t>First time here but apparently they just finished a massive update of all the rooms, and let me tell you, it was worth it. Stayed in a king suite that was the size of a 1 bedroom apartment. It’s set up studio style, but the living room area is a couple of steps down from the bedroom so it feels separate. The furnishings are modern and comfortable, and the two TVs are massive. Like 70-80inches. (1 Tv the bedroom and 1 in the living room.) There is a kitchenette that I didn’t use but it had a stove, oven, etc. so you could stay long term and cook your own meals. The bathroom was also spacious (two sinks) and had all brand new tiling and a large shower. I liked that the closet was located in the bathroom so you have everything you need in one room. Service:Valet parking, a little pricy at $42/ day but what else are you going to do? Valets were quick and friendly. Front desk and check-in process was a breeze and they were helpful. Definitely will make this my hotel of choice for nights in West Hollywood. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r595321799-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>595321799</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>Didn't love it this time</t>
+  </si>
+  <si>
+    <t>We had a really nice stay at this hotel several years ago but things have changed since.  Our recent stay was just okay.  The rooms are large and clean.  The pool area was a bit problematic.  First, the pool was was closed for a private party from 10AM to 3PM on one of the hottest days.  The pool was one of our main attraction to this hotel!  Later in the evening when we went to the pool, people there were smoking weed, drinking alcohol they brought themselves (bottle of Hennssey) and generally just having a party.  No staff to be seen to control the activities.  It was quite a party scene which I didn't want my children to be around so we didn't stay.  This hotel use to be more family friendly however now, it feels more like a party get away kinda place now.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a really nice stay at this hotel several years ago but things have changed since.  Our recent stay was just okay.  The rooms are large and clean.  The pool area was a bit problematic.  First, the pool was was closed for a private party from 10AM to 3PM on one of the hottest days.  The pool was one of our main attraction to this hotel!  Later in the evening when we went to the pool, people there were smoking weed, drinking alcohol they brought themselves (bottle of Hennssey) and generally just having a party.  No staff to be seen to control the activities.  It was quite a party scene which I didn't want my children to be around so we didn't stay.  This hotel use to be more family friendly however now, it feels more like a party get away kinda place now.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r595298734-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>595298734</t>
+  </si>
+  <si>
+    <t>Nice stay for a group!</t>
+  </si>
+  <si>
+    <t>Picked this hotel for my sisters bach party! There was a group of 5 of us. So having this be a hotel suite style hotel was perfect. 
+Check in was easy. Resort fee &amp; the $42 dollar a day parking was stated. As sucky the $42 dollar parking fee was, car service was brought out right away whenever we needed it.
+Hotel room: We had a room with 2 queen beds and the pull out sofa and I really enjoyed that. The bathroom was huge! What I loved the most about the bathroom there was huge counter space as well as big bottles of shampoo, conditioner, shower gel, hand/sink soap, &amp; lotion. Honestly that really impressed me the most. The beds were good, but the pillows did look tiny for the bed layout. One downfall is that in the closet that had extra pillows for the pull out, they did not have an extra blanket in it. When we called to get one they said they did not have any extras. Which for a hotel a bit surprising. Thankfully the next morning we called first thing for one so we could "reserve"/make sure we got one for that next night.
+Location: West Hollywood was good! From driving around  looked like we were pretty close to clubs/bars so definitely a good location.
+Unfortunately we did not have time to use the upstairs pool but it was small but seemed fine if...Picked this hotel for my sisters bach party! There was a group of 5 of us. So having this be a hotel suite style hotel was perfect. Check in was easy. Resort fee &amp; the $42 dollar a day parking was stated. As sucky the $42 dollar parking fee was, car service was brought out right away whenever we needed it.Hotel room: We had a room with 2 queen beds and the pull out sofa and I really enjoyed that. The bathroom was huge! What I loved the most about the bathroom there was huge counter space as well as big bottles of shampoo, conditioner, shower gel, hand/sink soap, &amp; lotion. Honestly that really impressed me the most. The beds were good, but the pillows did look tiny for the bed layout. One downfall is that in the closet that had extra pillows for the pull out, they did not have an extra blanket in it. When we called to get one they said they did not have any extras. Which for a hotel a bit surprising. Thankfully the next morning we called first thing for one so we could "reserve"/make sure we got one for that next night.Location: West Hollywood was good! From driving around  looked like we were pretty close to clubs/bars so definitely a good location.Unfortunately we did not have time to use the upstairs pool but it was small but seemed fine if you just wanted to relax pool side.For the whole trip it wasn't too bad. I'd come back again with a group since they have great spacious rooms!MoreShow less</t>
+  </si>
+  <si>
+    <t>Picked this hotel for my sisters bach party! There was a group of 5 of us. So having this be a hotel suite style hotel was perfect. 
+Check in was easy. Resort fee &amp; the $42 dollar a day parking was stated. As sucky the $42 dollar parking fee was, car service was brought out right away whenever we needed it.
+Hotel room: We had a room with 2 queen beds and the pull out sofa and I really enjoyed that. The bathroom was huge! What I loved the most about the bathroom there was huge counter space as well as big bottles of shampoo, conditioner, shower gel, hand/sink soap, &amp; lotion. Honestly that really impressed me the most. The beds were good, but the pillows did look tiny for the bed layout. One downfall is that in the closet that had extra pillows for the pull out, they did not have an extra blanket in it. When we called to get one they said they did not have any extras. Which for a hotel a bit surprising. Thankfully the next morning we called first thing for one so we could "reserve"/make sure we got one for that next night.
+Location: West Hollywood was good! From driving around  looked like we were pretty close to clubs/bars so definitely a good location.
+Unfortunately we did not have time to use the upstairs pool but it was small but seemed fine if...Picked this hotel for my sisters bach party! There was a group of 5 of us. So having this be a hotel suite style hotel was perfect. Check in was easy. Resort fee &amp; the $42 dollar a day parking was stated. As sucky the $42 dollar parking fee was, car service was brought out right away whenever we needed it.Hotel room: We had a room with 2 queen beds and the pull out sofa and I really enjoyed that. The bathroom was huge! What I loved the most about the bathroom there was huge counter space as well as big bottles of shampoo, conditioner, shower gel, hand/sink soap, &amp; lotion. Honestly that really impressed me the most. The beds were good, but the pillows did look tiny for the bed layout. One downfall is that in the closet that had extra pillows for the pull out, they did not have an extra blanket in it. When we called to get one they said they did not have any extras. Which for a hotel a bit surprising. Thankfully the next morning we called first thing for one so we could "reserve"/make sure we got one for that next night.Location: West Hollywood was good! From driving around  looked like we were pretty close to clubs/bars so definitely a good location.Unfortunately we did not have time to use the upstairs pool but it was small but seemed fine if you just wanted to relax pool side.For the whole trip it wasn't too bad. I'd come back again with a group since they have great spacious rooms!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r594654360-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>594654360</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Wonderful Surprise in West Hollywood!</t>
+  </si>
+  <si>
+    <t>The suite was decorated well, comfortable and spacious!   Although the hotel was completely full, it was quiet and we slept well in comfortable beds.  Enjoyed dining poolside and the staff was attentive, pleasant and respectful.  Hotel is within walking distance great restaurants, shopping and nightclubs! Will return!!MoreShow less</t>
+  </si>
+  <si>
+    <t>The suite was decorated well, comfortable and spacious!   Although the hotel was completely full, it was quiet and we slept well in comfortable beds.  Enjoyed dining poolside and the staff was attentive, pleasant and respectful.  Hotel is within walking distance great restaurants, shopping and nightclubs! Will return!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r593414521-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>593414521</t>
+  </si>
+  <si>
+    <t>07/05/2018</t>
+  </si>
+  <si>
+    <t>Stylish boutique hotel conveniently located in West Hollywood!</t>
+  </si>
+  <si>
+    <t>Every staff member we met from the front desk, to room service, to the bar on the rooftop, offered great service. Logan and the front desk team were always there to greet us with a smile and ask how our day was. The rooms and bathrooms are giant (plus great lighting!) so plenty of space to share with friends. The worst part of our stay was not giving ourselves enough time to hang out on the rooftop by the pool. We’ll definitely be back for another weekend soon!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Every staff member we met from the front desk, to room service, to the bar on the rooftop, offered great service. Logan and the front desk team were always there to greet us with a smile and ask how our day was. The rooms and bathrooms are giant (plus great lighting!) so plenty of space to share with friends. The worst part of our stay was not giving ourselves enough time to hang out on the rooftop by the pool. We’ll definitely be back for another weekend soon!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r593315557-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>593315557</t>
+  </si>
+  <si>
+    <t>Montrose West Hollywood</t>
+  </si>
+  <si>
+    <t>Great visit from beginning to end.  Fast, easy check in. Thanks Preston! Friendly staff.  Loved our room. The location is fantastic. Quiet neighborhood, but walking distance to lots of fun bars and restaurants. We will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great visit from beginning to end.  Fast, easy check in. Thanks Preston! Friendly staff.  Loved our room. The location is fantastic. Quiet neighborhood, but walking distance to lots of fun bars and restaurants. We will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r587364434-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>587364434</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holiday </t>
+  </si>
+  <si>
+    <t>Hi stayed here in May for my birthday staff friendly upgrade lovely room a lot refurbished going on pool very small and expensive but would return location very good visited pump restaurant bottom of hill MoreShow less</t>
+  </si>
+  <si>
+    <t>Andrew M, General Manager at Montrose West Hollywood, responded to this reviewResponded July 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2018</t>
+  </si>
+  <si>
+    <t>Hi stayed here in May for my birthday staff friendly upgrade lovely room a lot refurbished going on pool very small and expensive but would return location very good visited pump restaurant bottom of hill More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r587040947-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>587040947</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>Close to The Roxy but several problems</t>
+  </si>
+  <si>
+    <t>We were in town to see our favorite band play 4 nights at the Roxy and it was a short walk up the hill to the venue, which was awesome. There were some issues however. We had not been told that there were major renovations happening. The gentleman who checked us in could have been a bit more professional, it seemed like this was not his usual job to check people in. The first morning we were awoken at 7 am due to noise from the roof that sounded like chairs being dragged around and loud footsteps (we were on the top floor). I mentioned the noise to the front desk later that day and the next morning was quiet, which was good. We were then told to switch our room halfway thru our stay (they said it was due to "plumbing issues" due to the renovation). The new room did not have a kitchenette with refrigerator so I asked if a fridge could be moved in. They insisted there was a fridge, we looked high and lo, no fridge. I asked again, we were told again, yes you have one, I repeated no we don't, can we please get one. Finally we got one! That evening they told us we had to move again! But it turns out they were confused and had not realized we had already moved earlier that day, so bad communication between staff. The restaurant...We were in town to see our favorite band play 4 nights at the Roxy and it was a short walk up the hill to the venue, which was awesome. There were some issues however. We had not been told that there were major renovations happening. The gentleman who checked us in could have been a bit more professional, it seemed like this was not his usual job to check people in. The first morning we were awoken at 7 am due to noise from the roof that sounded like chairs being dragged around and loud footsteps (we were on the top floor). I mentioned the noise to the front desk later that day and the next morning was quiet, which was good. We were then told to switch our room halfway thru our stay (they said it was due to "plumbing issues" due to the renovation). The new room did not have a kitchenette with refrigerator so I asked if a fridge could be moved in. They insisted there was a fridge, we looked high and lo, no fridge. I asked again, we were told again, yes you have one, I repeated no we don't, can we please get one. Finally we got one! That evening they told us we had to move again! But it turns out they were confused and had not realized we had already moved earlier that day, so bad communication between staff. The restaurant was closed during our entire stay, but we did have breakfast at the pool one morning, instead. The first morning in our new room the alarm went off at 6 am. I had not set the alarm so that was upsetting. There was no full length mirror in the room, which should be standard in a hotel. There was no lobby due to construction although the current website for the hotel advertised an imaginary lobby with imaginary grab and go snacks. The bathroom was spacious and the separate living room area was nice to spread out. There was a small window looking right onto the street at street level, but there was no shade or curtain on the window. We were not compensated for our troubles except for two free drinks at the pool, which they give everyone when they check in anyway. So overall it was up and down. Some issues were addressed, some were not. I think they should have closed for renovations in order to get things worked out.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Andrew M, General Manager at Montrose West Hollywood, responded to this reviewResponded June 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2018</t>
+  </si>
+  <si>
+    <t>We were in town to see our favorite band play 4 nights at the Roxy and it was a short walk up the hill to the venue, which was awesome. There were some issues however. We had not been told that there were major renovations happening. The gentleman who checked us in could have been a bit more professional, it seemed like this was not his usual job to check people in. The first morning we were awoken at 7 am due to noise from the roof that sounded like chairs being dragged around and loud footsteps (we were on the top floor). I mentioned the noise to the front desk later that day and the next morning was quiet, which was good. We were then told to switch our room halfway thru our stay (they said it was due to "plumbing issues" due to the renovation). The new room did not have a kitchenette with refrigerator so I asked if a fridge could be moved in. They insisted there was a fridge, we looked high and lo, no fridge. I asked again, we were told again, yes you have one, I repeated no we don't, can we please get one. Finally we got one! That evening they told us we had to move again! But it turns out they were confused and had not realized we had already moved earlier that day, so bad communication between staff. The restaurant...We were in town to see our favorite band play 4 nights at the Roxy and it was a short walk up the hill to the venue, which was awesome. There were some issues however. We had not been told that there were major renovations happening. The gentleman who checked us in could have been a bit more professional, it seemed like this was not his usual job to check people in. The first morning we were awoken at 7 am due to noise from the roof that sounded like chairs being dragged around and loud footsteps (we were on the top floor). I mentioned the noise to the front desk later that day and the next morning was quiet, which was good. We were then told to switch our room halfway thru our stay (they said it was due to "plumbing issues" due to the renovation). The new room did not have a kitchenette with refrigerator so I asked if a fridge could be moved in. They insisted there was a fridge, we looked high and lo, no fridge. I asked again, we were told again, yes you have one, I repeated no we don't, can we please get one. Finally we got one! That evening they told us we had to move again! But it turns out they were confused and had not realized we had already moved earlier that day, so bad communication between staff. The restaurant was closed during our entire stay, but we did have breakfast at the pool one morning, instead. The first morning in our new room the alarm went off at 6 am. I had not set the alarm so that was upsetting. There was no full length mirror in the room, which should be standard in a hotel. There was no lobby due to construction although the current website for the hotel advertised an imaginary lobby with imaginary grab and go snacks. The bathroom was spacious and the separate living room area was nice to spread out. There was a small window looking right onto the street at street level, but there was no shade or curtain on the window. We were not compensated for our troubles except for two free drinks at the pool, which they give everyone when they check in anyway. So overall it was up and down. Some issues were addressed, some were not. I think they should have closed for renovations in order to get things worked out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33252-d82586-r586721138-Montrose_West_Hollywood-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>586721138</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>The room was clean and tidy. However, for 6 of us it felt very overcrowded. The sofa bed that was pulled out was really uncomfortable and me and my partner rolled into the centre of it by morning.The location is good as you are between Sunset and Santa Monica Boulevards, both within walking distance.Although there was a kitchen there was no cutlery, crockery, glasses or mugs. We had to keep ringing reception for them to bring them to the room. There also weren't enough towels even though they knew how many people the room was booked for. MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was clean and tidy. However, for 6 of us it felt very overcrowded. The sofa bed that was pulled out was really uncomfortable and me and my partner rolled into the centre of it by morning.The location is good as you are between Sunset and Santa Monica Boulevards, both within walking distance.Although there was a kitchen there was no cutlery, crockery, glasses or mugs. We had to keep ringing reception for them to bring them to the room. There also weren't enough towels even though they knew how many people the room was booked for. More</t>
+  </si>
   <si>
     <t>STR#</t>
   </si>
@@ -73,81 +1183,6 @@
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Montrose-West-Hollywood.h17594.Hotel-Information</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -521,37 +1556,3107 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>17449</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>53</v>
+      </c>
+      <c r="X4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>69</v>
+      </c>
+      <c r="X6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>69</v>
+      </c>
+      <c r="X7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>69</v>
+      </c>
+      <c r="X8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X9" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>89</v>
+      </c>
+      <c r="X11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" t="s">
+        <v>105</v>
+      </c>
+      <c r="L12" t="s">
+        <v>106</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>89</v>
+      </c>
+      <c r="X12" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" t="s">
+        <v>111</v>
+      </c>
+      <c r="L13" t="s">
+        <v>112</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>113</v>
+      </c>
+      <c r="X13" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" t="s">
+        <v>118</v>
+      </c>
+      <c r="L14" t="s">
+        <v>119</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>113</v>
+      </c>
+      <c r="X14" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" t="s">
+        <v>124</v>
+      </c>
+      <c r="L15" t="s">
+        <v>125</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>113</v>
+      </c>
+      <c r="X15" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" t="s">
+        <v>123</v>
+      </c>
+      <c r="K16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L16" t="s">
+        <v>131</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>113</v>
+      </c>
+      <c r="X16" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17" t="s">
+        <v>136</v>
+      </c>
+      <c r="L17" t="s">
+        <v>137</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>138</v>
+      </c>
+      <c r="X17" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>142</v>
+      </c>
+      <c r="J18" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" t="s">
+        <v>144</v>
+      </c>
+      <c r="L18" t="s">
+        <v>145</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>126</v>
+      </c>
+      <c r="O18" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>146</v>
+      </c>
+      <c r="X18" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" t="s">
+        <v>152</v>
+      </c>
+      <c r="L19" t="s">
+        <v>153</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>146</v>
+      </c>
+      <c r="X19" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J20" t="s">
+        <v>157</v>
+      </c>
+      <c r="K20" t="s">
+        <v>158</v>
+      </c>
+      <c r="L20" t="s">
+        <v>159</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>126</v>
+      </c>
+      <c r="O20" t="s">
+        <v>42</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>146</v>
+      </c>
+      <c r="X20" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>162</v>
+      </c>
+      <c r="J21" t="s">
+        <v>157</v>
+      </c>
+      <c r="K21" t="s">
+        <v>163</v>
+      </c>
+      <c r="L21" t="s">
+        <v>164</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>146</v>
+      </c>
+      <c r="X21" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>167</v>
+      </c>
+      <c r="J22" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L22" t="s">
+        <v>170</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>126</v>
+      </c>
+      <c r="O22" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>171</v>
+      </c>
+      <c r="X22" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" t="s">
+        <v>168</v>
+      </c>
+      <c r="K23" t="s">
+        <v>176</v>
+      </c>
+      <c r="L23" t="s">
+        <v>177</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>126</v>
+      </c>
+      <c r="O23" t="s">
+        <v>61</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>171</v>
+      </c>
+      <c r="X23" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24" t="s">
+        <v>181</v>
+      </c>
+      <c r="K24" t="s">
+        <v>182</v>
+      </c>
+      <c r="L24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>126</v>
+      </c>
+      <c r="O24" t="s">
+        <v>42</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>184</v>
+      </c>
+      <c r="X24" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>188</v>
+      </c>
+      <c r="J25" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" t="s">
+        <v>189</v>
+      </c>
+      <c r="L25" t="s">
+        <v>190</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>126</v>
+      </c>
+      <c r="O25" t="s">
+        <v>68</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>184</v>
+      </c>
+      <c r="X25" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>193</v>
+      </c>
+      <c r="J26" t="s">
+        <v>194</v>
+      </c>
+      <c r="K26" t="s">
+        <v>195</v>
+      </c>
+      <c r="L26" t="s">
+        <v>196</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>41</v>
+      </c>
+      <c r="O26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>197</v>
+      </c>
+      <c r="X26" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>201</v>
+      </c>
+      <c r="J27" t="s">
+        <v>202</v>
+      </c>
+      <c r="K27" t="s">
+        <v>203</v>
+      </c>
+      <c r="L27" t="s">
+        <v>204</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>126</v>
+      </c>
+      <c r="O27" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>197</v>
+      </c>
+      <c r="X27" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>207</v>
+      </c>
+      <c r="J28" t="s">
+        <v>208</v>
+      </c>
+      <c r="K28" t="s">
+        <v>209</v>
+      </c>
+      <c r="L28" t="s">
+        <v>210</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>126</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>197</v>
+      </c>
+      <c r="X28" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>212</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>213</v>
+      </c>
+      <c r="J29" t="s">
+        <v>214</v>
+      </c>
+      <c r="K29" t="s">
+        <v>215</v>
+      </c>
+      <c r="L29" t="s">
+        <v>216</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>41</v>
+      </c>
+      <c r="O29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>217</v>
+      </c>
+      <c r="X29" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>220</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>221</v>
+      </c>
+      <c r="J30" t="s">
+        <v>222</v>
+      </c>
+      <c r="K30" t="s">
+        <v>223</v>
+      </c>
+      <c r="L30" t="s">
+        <v>224</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>126</v>
+      </c>
+      <c r="O30" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>217</v>
+      </c>
+      <c r="X30" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>226</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>227</v>
+      </c>
+      <c r="J31" t="s">
+        <v>222</v>
+      </c>
+      <c r="K31" t="s">
+        <v>228</v>
+      </c>
+      <c r="L31" t="s">
+        <v>229</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>126</v>
+      </c>
+      <c r="O31" t="s">
+        <v>34</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>217</v>
+      </c>
+      <c r="X31" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>231</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>232</v>
+      </c>
+      <c r="J32" t="s">
+        <v>233</v>
+      </c>
+      <c r="K32" t="s">
+        <v>234</v>
+      </c>
+      <c r="L32" t="s">
+        <v>235</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>126</v>
+      </c>
+      <c r="O32" t="s">
+        <v>68</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>184</v>
+      </c>
+      <c r="X32" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>237</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J33" t="s">
+        <v>233</v>
+      </c>
+      <c r="K33" t="s">
+        <v>239</v>
+      </c>
+      <c r="L33" t="s">
+        <v>240</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>241</v>
+      </c>
+      <c r="X33" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>245</v>
+      </c>
+      <c r="J34" t="s">
+        <v>233</v>
+      </c>
+      <c r="K34" t="s">
+        <v>246</v>
+      </c>
+      <c r="L34" t="s">
+        <v>247</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>248</v>
+      </c>
+      <c r="O34" t="s">
+        <v>42</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>249</v>
+      </c>
+      <c r="X34" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>252</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>253</v>
+      </c>
+      <c r="J35" t="s">
+        <v>254</v>
+      </c>
+      <c r="K35" t="s">
+        <v>255</v>
+      </c>
+      <c r="L35" t="s">
+        <v>256</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>41</v>
+      </c>
+      <c r="O35" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>184</v>
+      </c>
+      <c r="X35" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>258</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>259</v>
+      </c>
+      <c r="J36" t="s">
+        <v>254</v>
+      </c>
+      <c r="K36" t="s">
+        <v>260</v>
+      </c>
+      <c r="L36" t="s">
+        <v>261</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>126</v>
+      </c>
+      <c r="O36" t="s">
+        <v>34</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>184</v>
+      </c>
+      <c r="X36" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>263</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>264</v>
+      </c>
+      <c r="J37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K37" t="s">
+        <v>266</v>
+      </c>
+      <c r="L37" t="s">
+        <v>267</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>268</v>
+      </c>
+      <c r="X37" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>271</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>272</v>
+      </c>
+      <c r="J38" t="s">
+        <v>273</v>
+      </c>
+      <c r="K38" t="s">
+        <v>274</v>
+      </c>
+      <c r="L38" t="s">
+        <v>275</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>41</v>
+      </c>
+      <c r="O38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>268</v>
+      </c>
+      <c r="X38" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>277</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>278</v>
+      </c>
+      <c r="J39" t="s">
+        <v>279</v>
+      </c>
+      <c r="K39" t="s">
+        <v>280</v>
+      </c>
+      <c r="L39" t="s">
+        <v>281</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>41</v>
+      </c>
+      <c r="O39" t="s">
+        <v>34</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>43</v>
+      </c>
+      <c r="X39" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>283</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>284</v>
+      </c>
+      <c r="J40" t="s">
+        <v>285</v>
+      </c>
+      <c r="K40" t="s">
+        <v>286</v>
+      </c>
+      <c r="L40" t="s">
+        <v>287</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>41</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>43</v>
+      </c>
+      <c r="X40" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>289</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>290</v>
+      </c>
+      <c r="J41" t="s">
+        <v>38</v>
+      </c>
+      <c r="K41" t="s">
+        <v>291</v>
+      </c>
+      <c r="L41" t="s">
+        <v>292</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>41</v>
+      </c>
+      <c r="O41" t="s">
+        <v>42</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>268</v>
+      </c>
+      <c r="X41" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>294</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>295</v>
+      </c>
+      <c r="J42" t="s">
+        <v>296</v>
+      </c>
+      <c r="K42" t="s">
+        <v>297</v>
+      </c>
+      <c r="L42" t="s">
+        <v>298</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>41</v>
+      </c>
+      <c r="O42" t="s">
+        <v>42</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>268</v>
+      </c>
+      <c r="X42" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>300</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>301</v>
+      </c>
+      <c r="J43" t="s">
+        <v>302</v>
+      </c>
+      <c r="K43" t="s">
+        <v>303</v>
+      </c>
+      <c r="L43" t="s">
+        <v>304</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>41</v>
+      </c>
+      <c r="O43" t="s">
+        <v>34</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>43</v>
+      </c>
+      <c r="X43" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>306</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s">
+        <v>307</v>
+      </c>
+      <c r="J44" t="s">
+        <v>302</v>
+      </c>
+      <c r="K44" t="s">
+        <v>308</v>
+      </c>
+      <c r="L44" t="s">
+        <v>309</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>41</v>
+      </c>
+      <c r="O44" t="s">
+        <v>61</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>184</v>
+      </c>
+      <c r="X44" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>311</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>312</v>
+      </c>
+      <c r="J45" t="s">
+        <v>313</v>
+      </c>
+      <c r="K45" t="s">
+        <v>314</v>
+      </c>
+      <c r="L45" t="s">
+        <v>315</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>248</v>
+      </c>
+      <c r="O45" t="s">
+        <v>34</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>241</v>
+      </c>
+      <c r="X45" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>317</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>318</v>
+      </c>
+      <c r="J46" t="s">
+        <v>319</v>
+      </c>
+      <c r="K46" t="s">
+        <v>320</v>
+      </c>
+      <c r="L46" t="s">
+        <v>321</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>322</v>
+      </c>
+      <c r="O46" t="s">
+        <v>61</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>241</v>
+      </c>
+      <c r="X46" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>324</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>325</v>
+      </c>
+      <c r="J47" t="s">
+        <v>319</v>
+      </c>
+      <c r="K47" t="s">
+        <v>326</v>
+      </c>
+      <c r="L47" t="s">
+        <v>327</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>41</v>
+      </c>
+      <c r="O47" t="s">
+        <v>61</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>217</v>
+      </c>
+      <c r="X47" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" t="s">
+        <v>329</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s">
+        <v>330</v>
+      </c>
+      <c r="J48" t="s">
+        <v>331</v>
+      </c>
+      <c r="K48" t="s">
+        <v>332</v>
+      </c>
+      <c r="L48" t="s">
+        <v>333</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>248</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>334</v>
+      </c>
+      <c r="X48" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>337</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s">
+        <v>338</v>
+      </c>
+      <c r="J49" t="s">
+        <v>339</v>
+      </c>
+      <c r="K49" t="s">
+        <v>340</v>
+      </c>
+      <c r="L49" t="s">
+        <v>341</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>342</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>343</v>
+      </c>
+      <c r="X49" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>346</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s">
+        <v>347</v>
+      </c>
+      <c r="J50" t="s">
+        <v>348</v>
+      </c>
+      <c r="K50" t="s">
+        <v>349</v>
+      </c>
+      <c r="L50" t="s">
+        <v>350</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>248</v>
+      </c>
+      <c r="O50" t="s">
+        <v>61</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>343</v>
+      </c>
+      <c r="X50" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -573,79 +4678,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>352</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>353</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>354</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>355</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>356</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>357</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>358</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>359</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>360</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>43</v>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>17449</v>
+      </c>
+      <c r="B2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J2" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
